--- a/Basic Materials - Mining - Gold/x_BasicMaterials_MiningGold.xlsx
+++ b/Basic Materials - Mining - Gold/x_BasicMaterials_MiningGold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Basic Materials - Mining - Gold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1E82F-E655-40F6-BC96-E2E936ECE00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DA6260-EFFA-4EF2-BD85-84BC522A894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26325" yWindow="-705" windowWidth="23115" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Company Name</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>TFPM</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -265,12 +262,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +574,7 @@
     <col min="14" max="14" width="8.5703125" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,37 +663,37 @@
         <v>60.59</v>
       </c>
       <c r="J2">
-        <v>2.2999999999999998</v>
+        <v>2.23</v>
       </c>
       <c r="K2">
-        <v>2.14</v>
+        <v>2.56</v>
       </c>
       <c r="L2">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="M2" s="2">
         <f>K2/J2-1</f>
-        <v>-6.9565217391304168E-2</v>
+        <v>0.14798206278026904</v>
       </c>
       <c r="N2" s="2">
         <f>L2/K2-1</f>
-        <v>0.22429906542056077</v>
+        <v>8.203125E-2</v>
       </c>
       <c r="O2" s="4">
         <f>$I2/K2</f>
-        <v>28.313084112149532</v>
+        <v>23.66796875</v>
       </c>
       <c r="P2" s="4">
         <f>$I2/L2</f>
-        <v>23.125954198473284</v>
-      </c>
-      <c r="Q2">
+        <v>21.873646209386283</v>
+      </c>
+      <c r="Q2" s="4">
         <f>O2/(M2*100)</f>
-        <v>-4.0700058411215059</v>
+        <v>1.5993809185606063</v>
       </c>
       <c r="R2" s="4">
         <f>P2/(N2*100)</f>
-        <v>1.0310321246819338</v>
+        <v>2.6665016331442328</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -726,37 +725,37 @@
         <v>14.51</v>
       </c>
       <c r="J3">
+        <v>0.53</v>
+      </c>
+      <c r="K3">
         <v>0.59</v>
       </c>
-      <c r="K3">
-        <v>0.53</v>
-      </c>
       <c r="L3">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M12" si="0">K3/J3-1</f>
-        <v>-0.10169491525423724</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N12" si="1">L3/K3-1</f>
-        <v>0.28301886792452824</v>
+        <v>0.20338983050847448</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="2">$I3/K3</f>
-        <v>27.377358490566035</v>
+        <v>24.593220338983052</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="3">$I3/L3</f>
-        <v>21.338235294117645</v>
+        <v>20.43661971830986</v>
       </c>
       <c r="Q3" s="4">
         <f>O3/(M3*100)</f>
-        <v>-2.692106918238995</v>
+        <v>2.1724011299435033</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:R12" si="4">P3/(N3*100)</f>
-        <v>0.75395098039215702</v>
+        <v>1.0048004694835686</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -788,25 +787,25 @@
         <v>23.1</v>
       </c>
       <c r="J4" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="K4" s="3">
         <v>1.77</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.21</v>
       </c>
       <c r="L4" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="0"/>
-        <v>-0.31638418079096053</v>
+        <v>0.46280991735537191</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="1"/>
-        <v>0.90082644628099162</v>
+        <v>0.29943502824858736</v>
       </c>
       <c r="O4" s="7">
         <f t="shared" si="2"/>
-        <v>19.090909090909093</v>
+        <v>13.050847457627119</v>
       </c>
       <c r="P4" s="7">
         <f t="shared" si="3"/>
@@ -814,11 +813,11 @@
       </c>
       <c r="Q4" s="7">
         <f t="shared" ref="Q4:Q12" si="5">O4/(M4*100)</f>
-        <v>-0.60340909090909089</v>
+        <v>0.28199152542372879</v>
       </c>
       <c r="R4" s="7">
         <f t="shared" si="4"/>
-        <v>0.11149182289589153</v>
+        <v>0.33541427399507817</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -850,37 +849,37 @@
         <v>2.74</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="L5">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>0.49999999999999978</v>
+        <v>-0.2142857142857143</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="1"/>
-        <v>0.26666666666666683</v>
+        <v>0.81818181818181834</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="2"/>
-        <v>9.1333333333333346</v>
+        <v>12.454545454545455</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="3"/>
-        <v>7.2105263157894743</v>
+        <v>6.8500000000000005</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="5"/>
-        <v>0.18266666666666678</v>
+        <v>-0.58121212121212118</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="4"/>
-        <v>0.27039473684210513</v>
+        <v>8.3722222222222212E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -912,37 +911,37 @@
         <v>119.13</v>
       </c>
       <c r="J6">
-        <v>2.68</v>
+        <v>3.64</v>
       </c>
       <c r="K6">
-        <v>3.46</v>
+        <v>3.08</v>
       </c>
       <c r="L6">
-        <v>3.11</v>
+        <v>3.76</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>0.29104477611940283</v>
+        <v>-0.15384615384615385</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.10115606936416188</v>
+        <v>0.22077922077922074</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="2"/>
-        <v>34.430635838150287</v>
+        <v>38.678571428571423</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="3"/>
-        <v>38.30546623794212</v>
+        <v>31.683510638297872</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="5"/>
-        <v>1.18300133392619</v>
+        <v>-2.5141071428571427</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>-3.7867689480937052</v>
+        <v>1.4350766583229038</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -974,37 +973,37 @@
         <v>16.68</v>
       </c>
       <c r="J7">
-        <v>1.1499999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K7">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L7">
-        <v>2.0099999999999998</v>
+        <v>1.23</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>-0.14782608695652166</v>
+        <v>0.15476190476190488</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>1.0510204081632653</v>
+        <v>0.268041237113402</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="2"/>
-        <v>17.020408163265305</v>
+        <v>17.195876288659793</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="3"/>
-        <v>8.2985074626865671</v>
+        <v>13.560975609756097</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="5"/>
-        <v>-1.1513805522208889</v>
+        <v>1.1111181601903242</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="4"/>
-        <v>7.8956672945949866E-2</v>
+        <v>0.50592870544090063</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1036,25 +1035,25 @@
         <v>17.39</v>
       </c>
       <c r="J8">
+        <v>0.78</v>
+      </c>
+      <c r="K8">
         <v>0.9</v>
-      </c>
-      <c r="K8">
-        <v>0.78</v>
       </c>
       <c r="L8">
         <v>1.1000000000000001</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.1333333333333333</v>
+        <v>0.15384615384615374</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>0.41025641025641035</v>
+        <v>0.22222222222222232</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="2"/>
-        <v>22.294871794871796</v>
+        <v>19.322222222222223</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="3"/>
@@ -1062,11 +1061,11 @@
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="5"/>
-        <v>-1.6721153846153851</v>
+        <v>1.2559444444444454</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="4"/>
-        <v>0.38534659090909079</v>
+        <v>0.71140909090909055</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1098,25 +1097,25 @@
         <v>8.59</v>
       </c>
       <c r="J9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.8</v>
       </c>
-      <c r="K9" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>48</v>
+      <c r="L9" s="7">
+        <v>1</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="0"/>
-        <v>-0.52500000000000002</v>
+        <v>1.1052631578947367</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="1"/>
-        <v>1.6315789473684212</v>
+        <v>0.25</v>
       </c>
       <c r="O9" s="7">
         <f>$I9/K9</f>
-        <v>22.605263157894736</v>
+        <v>10.737499999999999</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="3"/>
@@ -1124,11 +1123,11 @@
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="5"/>
-        <v>-0.43057644110275689</v>
+        <v>9.7148809523809526E-2</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="4"/>
-        <v>5.2648387096774184E-2</v>
+        <v>0.34360000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1154,41 +1153,41 @@
         <v>45</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>6.28</v>
       </c>
       <c r="J10" s="10">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="K10" s="10">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="L10" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="M10" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" ref="M10" si="6">K10/J10-1</f>
-        <v>0.24242424242424221</v>
-      </c>
-      <c r="N10" s="11">
+        <v>-0.18181818181818188</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" ref="N10" si="7">L10/K10-1</f>
-        <v>-0.12195121951219512</v>
-      </c>
-      <c r="O10" s="12">
+        <v>8.3333333333333481E-2</v>
+      </c>
+      <c r="O10" s="4">
         <f>$I10/K10</f>
-        <v>15.317073170731708</v>
-      </c>
-      <c r="P10" s="12">
+        <v>17.444444444444446</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" ref="P10" si="8">$I10/L10</f>
-        <v>17.444444444444446</v>
-      </c>
-      <c r="Q10" s="12">
+        <v>16.102564102564102</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" ref="Q10" si="9">O10/(M10*100)</f>
-        <v>0.63182926829268349</v>
-      </c>
-      <c r="R10" s="12">
+        <v>-0.95944444444444432</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" ref="R10" si="10">P10/(N10*100)</f>
-        <v>-1.4304444444444446</v>
+        <v>1.9323076923076887</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1213,41 +1212,41 @@
       <c r="G11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <v>16.190000000000001</v>
       </c>
       <c r="J11" s="10">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="K11" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="L11" s="10">
         <v>0.43</v>
       </c>
-      <c r="L11" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="M11" s="2">
         <f t="shared" ref="M11" si="11">K11/J11-1</f>
-        <v>2.3809523809523725E-2</v>
-      </c>
-      <c r="N11" s="11">
+        <v>-7.6923076923076983E-2</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" ref="N11" si="12">L11/K11-1</f>
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="O11" s="12">
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="O11" s="4">
         <f t="shared" ref="O11" si="13">$I11/K11</f>
+        <v>44.972222222222229</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" ref="P11" si="14">$I11/L11</f>
         <v>37.651162790697676</v>
       </c>
-      <c r="P11" s="12">
-        <f t="shared" ref="P11" si="14">$I11/L11</f>
-        <v>29.981481481481481</v>
-      </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="4">
         <f t="shared" ref="Q11" si="15">O11/(M11*100)</f>
-        <v>15.813488372093079</v>
-      </c>
-      <c r="R11" s="12">
+        <v>-5.8463888888888844</v>
+      </c>
+      <c r="R11" s="4">
         <f t="shared" ref="R11" si="16">P11/(N11*100)</f>
-        <v>1.1720033670033669</v>
+        <v>1.9363455149501663</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1279,37 +1278,37 @@
         <v>122.4</v>
       </c>
       <c r="J12">
-        <v>4.17</v>
+        <v>3.53</v>
       </c>
       <c r="K12">
-        <v>3.34</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="L12">
-        <v>5.13</v>
+        <v>5.44</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="0"/>
-        <v>-0.19904076738609111</v>
+        <v>0.22096317280453248</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="1"/>
-        <v>0.53592814371257491</v>
+        <v>0.26218097447795841</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="2"/>
-        <v>36.646706586826348</v>
+        <v>28.399071925754065</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="3"/>
-        <v>23.859649122807021</v>
+        <v>22.5</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="5"/>
-        <v>-1.8411658610489867</v>
+        <v>1.2852400499732293</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" si="4"/>
-        <v>0.44520239145349411</v>
+        <v>0.858185840707964</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1335,41 +1334,41 @@
         <v>45</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>15.11</v>
       </c>
       <c r="J13" s="10">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="K13" s="10">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="L13" s="10">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ref="M13" si="17">K13/J13-1</f>
-        <v>-0.20000000000000007</v>
+        <v>0.39393939393939403</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" ref="N13" si="18">L13/K13-1</f>
-        <v>0.625</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" ref="O13" si="19">$I13/K13</f>
-        <v>47.21875</v>
+        <v>32.847826086956516</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" ref="P13" si="20">$I13/L13</f>
-        <v>29.057692307692307</v>
+        <v>24.370967741935484</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" ref="Q13" si="21">O13/(M13*100)</f>
-        <v>-2.360937499999999</v>
+        <v>0.83382943143812671</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13" si="22">P13/(N13*100)</f>
-        <v>0.46492307692307688</v>
+        <v>0.70066532258064518</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1386,30 +1385,66 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M16" s="14">
+      <c r="M16" s="12">
         <f>AVERAGE(M2:M13)</f>
-        <v>-5.2963829896606633E-2</v>
-      </c>
-      <c r="N16" s="14">
+        <v>0.17715834863992055</v>
+      </c>
+      <c r="N16" s="12">
         <f>AVERAGE(N2:N13)</f>
-        <v>0.49677513503378617</v>
+        <v>0.2709887871888319</v>
       </c>
       <c r="O16" s="9">
         <f>AVERAGE(O2:O13)</f>
-        <v>26.424963044116321</v>
+        <v>23.613693051665532</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" ref="P16:R16" si="23">AVERAGE(P2:P13)</f>
-        <v>19.422043836282906</v>
+        <v>19.122667998408989</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="23"/>
-        <v>0.24910733764341761</v>
+        <v>-0.10534151065873498</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="23"/>
-        <v>-3.7605270116192462E-2</v>
-      </c>
+        <v>1.042829785338705</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
